--- a/Dokumentation/Excel-Dateien/Anforderungen-Probleme.xlsx
+++ b/Dokumentation/Excel-Dateien/Anforderungen-Probleme.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dang\Desktop\EinkaufsApp\EinkaufsApp-Doku\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anni\Desktop\Einkaufsapp\EinkaufsApp-Doku\Dokumentation\Excel-Dateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Probleme Funktionenumsetzung" sheetId="1" r:id="rId1"/>
     <sheet name="Projektgruppendynamik" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Probleme Funktionenumsetzung'!$A$1:$B$16</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,63 +28,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Anforderungen an die App</t>
-  </si>
-  <si>
-    <t>umgesetzte Funktionen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gefüllte Datenbank mit Produten anwenden um Produkte zu finden </t>
-  </si>
-  <si>
-    <t>Datenbank muss zuerst manuell eingepflegt werden, 
-die Datenbank ethält noch keine Produkte, die die EANs schon kennt
-es muss erst die EAN eingescannt werden und der Produktname und Preis dazu gepflegt werden</t>
-  </si>
-  <si>
-    <t>bestimmte Atrikel im Angebot anzeigen</t>
-  </si>
-  <si>
-    <t>diese Angebote müssen ebenso manuell eingepflegt werden in die Datenbank</t>
-  </si>
-  <si>
-    <t>sonstige Kosten aufzunehmen,
- die nicht mit einem EAN Code in Verbindung gebracht werden
-(z.B. Miete, Strom-Kosten)</t>
-  </si>
-  <si>
-    <t>sonstige Kosten können aufgenommen werden 
-und man kann Rhythmus der Abrechnung bestimmen
- --&gt; periodische Kosten</t>
-  </si>
-  <si>
-    <t>Es soll möglich sein für jemand anderen oder eine Gruppe (z.B. WG) einkaufen</t>
-  </si>
-  <si>
-    <t>Daten werden zentral in einer,über das Internet erreichbare Datenbank gespeichert</t>
-  </si>
-  <si>
-    <t>jeder der Gruppenmitglied ist darf auf Gruppe zugreifen und einkaufen und Artikel einscannen</t>
-  </si>
-  <si>
-    <t>ja umgesetzt in MongoDB</t>
   </si>
   <si>
     <t>Die App soll primär ein einfaches Front End bereitstellen, 
 um Informationen zu sammeln und zu verwalten</t>
-  </si>
-  <si>
-    <t>ja umgesetzt in App</t>
-  </si>
-  <si>
-    <t>Web Site ist momentan out of scope, wäre aber eine sinnvolle
-Ergänzung für die Ausgabe von Statistiken und die Benutzerverwaltung.</t>
-  </si>
-  <si>
-    <t>im Internet kann man Website aufrufen aber dort existiert kein EAN Scanner
---&gt; ist auch nicht sinnvoll</t>
   </si>
   <si>
     <t>Möglichkeiten der Auswertung sind vielfältig und können in Listen
@@ -94,76 +47,136 @@
 c) Durchschnittspreis</t>
   </si>
   <si>
-    <t>Ein online verfügbarer Server, auf dem seinerseits ein Datenbank Server
-und ein Web Server läuft
+    <t>Funktion des Preisvergleichs in unterschiedlichen Märkten</t>
+  </si>
+  <si>
+    <t>Kein richtiges PM</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Auswirkung</t>
+  </si>
+  <si>
+    <t>Unzureichende Kommunikation -&gt; Zeitverzögerndes Arbeiten</t>
+  </si>
+  <si>
+    <t>Kein Teamspiel</t>
+  </si>
+  <si>
+    <t>Unterschiedliche Zielsetzungen wurden umgesetzt</t>
+  </si>
+  <si>
+    <t>Bestimmte Artikel, welche sich in einem 
+bestimmten Markt im Angebot befinden, anzeigen</t>
+  </si>
+  <si>
+    <t>Sonstige Kosten aufzunehmen,
+die nicht mit einem EAN Code in Verbindung gebracht werden
+(z.B. Miete, Strom-Kosten)</t>
+  </si>
+  <si>
+    <t>Umgesetzt in MongoDB</t>
+  </si>
+  <si>
+    <t>Noch nicht implementiert</t>
+  </si>
+  <si>
+    <t>Umgesetzt in gesamter EinkaufsApp</t>
+  </si>
+  <si>
+    <t>Out of Scope: WebSite als Ergänzung für die Ausgabe von Statistiken und die Benutzerverwaltung</t>
+  </si>
+  <si>
+    <t>Verbindung zur Datenbank via JavaScript</t>
+  </si>
+  <si>
+    <t>Umgesetzt in EinkaufsApp</t>
+  </si>
+  <si>
+    <t>Funktion der Erstellung von Einkaufslisten vor dem Einkauf
+Artikelaufnahme in diese Liste
+Nachfolgende Bearbeitung dieser Liste</t>
+  </si>
+  <si>
+    <t>Out of Scope: Anmelden via Facebook oder Twitter</t>
+  </si>
+  <si>
+    <t>Out of Scope,  aber kann in späteren Versionen eingesetzt werden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Jeder der Gruppenmitglieder darf für Gruppe einkaufen und Artikel einscannen
+Jedoch noch nicht möglich dass andere Gruppenmitglieder bereits eingekaufte Artikel sehen wenn Einkauf nicht abegschlossen ist
+</t>
+  </si>
+  <si>
+    <t>Datenbank muss manuell eingepflegt werden
+Jeder Nutzer sieht Produte in Datenbank
+Um Datebank zu füllen: EAN einscannen und Produktname und Preis dazu einpflegen</t>
+  </si>
+  <si>
+    <t>Ebenso manuelle Einpflegung von Angebotspreis 
+und Angebotszeitraum für Produkt notwendig</t>
+  </si>
+  <si>
+    <t>Umgesetzt durch 3 Auswertungsmöglichkeiten:
+Häufigkeit, Ausgabenverlauf, Gruppenverlauf</t>
+  </si>
+  <si>
+    <t>Produkte aus gepflegter Datenbank auswählen 
+und für eigenen Einkauf nutzen</t>
+  </si>
+  <si>
+    <t>Daten werden zentral in einer, über das Internet erreichbare,
+Datenbank gespeichert</t>
+  </si>
+  <si>
+    <t>Ein online verfügbarer Server, auf dem seinerseits ein 
+Datenbank Server und ein Web Server läuft
 a) Als Datenbank-Server wird MongoDB verwendet
 b) Als Web Server wird Apache verwendet</t>
   </si>
   <si>
-    <t>ja wurde umgesetzt</t>
-  </si>
-  <si>
-    <t>Aus der Android-App heraus wird mittels HTTP-Post eine Anfrage an
-die PHP-Skripte geschickte und die Antwort im JSON-Format wieder
+    <t>Aus der Android-App heraus wird mittels HTTP-Mehtoden(GET,POST,…) eine Anfrage an den Webserver geschickt
+und die Antwort im JSON-Format wieder
 an die App zurück geschickt.</t>
   </si>
   <si>
-    <t>Auf dem Web Server befindliche PHP-Skripte stellen die Verbindung
-zur Datenbank her.</t>
-  </si>
-  <si>
-    <t>momentan noch nicht mögich --&gt; in Umsetzung</t>
-  </si>
-  <si>
-    <t>momentan noch nicht möglich --&gt; in Umsetzung</t>
-  </si>
-  <si>
-    <t>falsch, JavaScript wird hier verwendet</t>
-  </si>
-  <si>
-    <t>falsch, JavaScript wird hier verwendet und JSON ist korrekt</t>
-  </si>
-  <si>
-    <t>Funktion des Preisvergleichs in unterschiedlichen Märkten</t>
-  </si>
-  <si>
-    <t>Funktion der Erstellung von Einkaufslisten
-Artikelaufnahme in diese Liste
-sowie die nachfolgende Bearbeitung dieser Liste</t>
-  </si>
-  <si>
-    <t>wird nicht umgesetzt,  da out of scope und momentan zu zeitaufwendig
---&gt; kann in späteren Versionen eingesetzt werden</t>
-  </si>
-  <si>
-    <t>seinem FB-Profil oder via Twitter anmelden</t>
-  </si>
-  <si>
-    <t>Kein richtiges PM</t>
-  </si>
-  <si>
-    <t>Problem</t>
-  </si>
-  <si>
-    <t>Auswirkung</t>
-  </si>
-  <si>
-    <t>Unzureichende Kommunikation -&gt; Zeitverzögerndes Arbeiten</t>
-  </si>
-  <si>
-    <t>Kein Teamspiel</t>
-  </si>
-  <si>
-    <t>Unterschiedliche Zielsetzungen wurden umgesetzt</t>
+    <t>Möglichkeit für jemand anderen oder Gruppe 
+(z.B. WG) einzukaufen</t>
+  </si>
+  <si>
+    <t>Out of Scope, doch im Internet kann man Website aufrufen 
+--&gt; aber Ausgabe wäre dort sinnvoll</t>
+  </si>
+  <si>
+    <t>Umgesetzte Funktionen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -184,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -192,15 +205,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -220,9 +322,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -260,7 +362,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -332,7 +434,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -482,148 +584,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.140625" customWidth="1"/>
-    <col min="2" max="2" width="87" customWidth="1"/>
+    <col min="1" max="1" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="69.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B7" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B9" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -631,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -642,26 +752,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
